--- a/对比下差异.xlsx
+++ b/对比下差异.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>nihao</t>
+    <t>haoma？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>haoma</t>
+    <t>nihao？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,8 +373,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -388,23 +407,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>